--- a/Data/EC/NIT-9001546954.xlsx
+++ b/Data/EC/NIT-9001546954.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19A2D440-8BCA-40C5-BC5E-BC90BD6B0ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95149546-AB2A-4BEC-BC97-AE011EBB74AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6E822C50-95F8-429F-8A2A-ED382233545E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0056B457-AF13-4906-A8B6-5A8B94DF514B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="98">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -86,10 +86,37 @@
     <t>EDGARDO FRANCISCO MELENDEZ PEREZ</t>
   </si>
   <si>
+    <t>1042455643</t>
+  </si>
+  <si>
+    <t>HEINER JOSE TORRES NAVARRO</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
     <t>1701</t>
   </si>
   <si>
-    <t>1612</t>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1002100337</t>
+  </si>
+  <si>
+    <t>OLMER MARTINEZ VANEGAS</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>84090275</t>
+  </si>
+  <si>
+    <t>ARGEMIRO GARCIA</t>
+  </si>
+  <si>
+    <t>1704</t>
   </si>
   <si>
     <t>7634205</t>
@@ -98,187 +125,169 @@
     <t>JOSE MIGUEL QUINTANA FONSECA</t>
   </si>
   <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
     <t>1708</t>
   </si>
   <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1047422630</t>
-  </si>
-  <si>
-    <t>NUMIL ALEXANDER HERRERA DAU</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>1042455643</t>
-  </si>
-  <si>
-    <t>HEINER JOSE TORRES NAVARRO</t>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1042998116</t>
+  </si>
+  <si>
+    <t>JAIRO MANUEL BATISTA YEPEZ</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>1084740659</t>
+  </si>
+  <si>
+    <t>JESUS ARMANDO JIMENEZ REYES</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
   </si>
   <si>
     <t>2104</t>
   </si>
   <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
+    <t>1002099793</t>
+  </si>
+  <si>
+    <t>YEIMER MARTINEZ VANEGAS</t>
+  </si>
+  <si>
+    <t>2209</t>
   </si>
   <si>
     <t>1047376275</t>
@@ -288,39 +297,6 @@
   </si>
   <si>
     <t>2305</t>
-  </si>
-  <si>
-    <t>1002100337</t>
-  </si>
-  <si>
-    <t>OLMER MARTINEZ VANEGAS</t>
-  </si>
-  <si>
-    <t>84090275</t>
-  </si>
-  <si>
-    <t>ARGEMIRO GARCIA</t>
-  </si>
-  <si>
-    <t>1042998116</t>
-  </si>
-  <si>
-    <t>JAIRO MANUEL BATISTA YEPEZ</t>
-  </si>
-  <si>
-    <t>1084740659</t>
-  </si>
-  <si>
-    <t>JESUS ARMANDO JIMENEZ REYES</t>
-  </si>
-  <si>
-    <t>1002099793</t>
-  </si>
-  <si>
-    <t>YEIMER MARTINEZ VANEGAS</t>
-  </si>
-  <si>
-    <t>2209</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -419,7 +395,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -432,9 +410,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -634,23 +610,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -678,10 +654,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -734,7 +710,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5536D7-1128-8080-15DA-93546466D183}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB314E36-BD02-11C8-C9EA-FE4CAF2D93BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1085,8 +1061,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB084470-48BF-4021-AB83-F2945F7DD834}">
-  <dimension ref="B2:J100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC62A2D-BD5B-4CA8-B028-D7641BCE5751}">
+  <dimension ref="B2:J94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1110,7 +1086,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1155,7 +1131,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1187,12 +1163,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3153442</v>
+        <v>2875042</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1203,17 +1179,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C13" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F13" s="5">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1240,13 +1216,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1266,7 +1242,7 @@
         <v>34000</v>
       </c>
       <c r="G16" s="18">
-        <v>850000</v>
+        <v>899000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1306,13 +1282,13 @@
         <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>34000</v>
       </c>
       <c r="G18" s="18">
-        <v>850000</v>
+        <v>989000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1323,19 +1299,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>34000</v>
+        <v>35938</v>
       </c>
       <c r="G19" s="18">
-        <v>850000</v>
+        <v>898450</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1352,13 +1328,13 @@
         <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>34000</v>
       </c>
       <c r="G20" s="18">
-        <v>850000</v>
+        <v>989000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1369,19 +1345,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F21" s="18">
-        <v>100000</v>
+        <v>35938</v>
       </c>
       <c r="G21" s="18">
-        <v>2500000</v>
+        <v>898450</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1392,19 +1368,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F22" s="18">
-        <v>100000</v>
+        <v>34000</v>
       </c>
       <c r="G22" s="18">
-        <v>2500000</v>
+        <v>989000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1415,19 +1391,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F23" s="18">
-        <v>100000</v>
+        <v>35938</v>
       </c>
       <c r="G23" s="18">
-        <v>2500000</v>
+        <v>898450</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1438,19 +1414,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
-        <v>100000</v>
+        <v>35938</v>
       </c>
       <c r="G24" s="18">
-        <v>2500000</v>
+        <v>898450</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1461,19 +1437,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>46400</v>
+        <v>44394</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>2091000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1484,19 +1460,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>46400</v>
+        <v>35938</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>898450</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1513,13 +1489,13 @@
         <v>25</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
-        <v>46400</v>
+        <v>37360</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>1015000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1530,19 +1506,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
-        <v>46400</v>
+        <v>35938</v>
       </c>
       <c r="G28" s="18">
-        <v>1160000</v>
+        <v>898450</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1559,13 +1535,13 @@
         <v>25</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>46400</v>
+        <v>37360</v>
       </c>
       <c r="G29" s="18">
-        <v>1160000</v>
+        <v>1015000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1576,19 +1552,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
-        <v>46400</v>
+        <v>100000</v>
       </c>
       <c r="G30" s="18">
-        <v>1160000</v>
+        <v>2500000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1599,13 +1575,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
         <v>35938</v>
@@ -1622,19 +1598,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F32" s="18">
-        <v>35938</v>
+        <v>100000</v>
       </c>
       <c r="G32" s="18">
-        <v>898450</v>
+        <v>2500000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1645,13 +1621,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>35938</v>
@@ -1668,19 +1644,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
-        <v>35938</v>
+        <v>100000</v>
       </c>
       <c r="G34" s="18">
-        <v>898450</v>
+        <v>2500000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1691,13 +1667,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F35" s="18">
         <v>35938</v>
@@ -1714,19 +1690,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="F36" s="18">
-        <v>35938</v>
+        <v>100000</v>
       </c>
       <c r="G36" s="18">
-        <v>898450</v>
+        <v>2500000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1737,13 +1713,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F37" s="18">
         <v>35938</v>
@@ -1760,13 +1736,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D38" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="F38" s="18">
         <v>35938</v>
@@ -1783,13 +1759,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>35938</v>
@@ -1806,13 +1782,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>35938</v>
@@ -1829,13 +1805,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>35938</v>
@@ -1852,13 +1828,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>35938</v>
@@ -1875,13 +1851,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>35938</v>
@@ -1898,13 +1874,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>35938</v>
@@ -1921,13 +1897,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>35938</v>
@@ -1944,13 +1920,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>35938</v>
@@ -1967,13 +1943,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>35938</v>
@@ -1990,13 +1966,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>35938</v>
@@ -2013,13 +1989,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>35938</v>
@@ -2036,19 +2012,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F50" s="18">
-        <v>35938</v>
+        <v>14866</v>
       </c>
       <c r="G50" s="18">
-        <v>898450</v>
+        <v>1114926</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2059,13 +2035,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F51" s="18">
         <v>35938</v>
@@ -2082,19 +2058,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>35938</v>
+        <v>44597</v>
       </c>
       <c r="G52" s="18">
-        <v>898450</v>
+        <v>1114926</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2105,13 +2081,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>35938</v>
@@ -2128,13 +2104,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>35938</v>
@@ -2151,13 +2127,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
         <v>35938</v>
@@ -2174,13 +2150,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>35938</v>
@@ -2197,13 +2173,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
         <v>35938</v>
@@ -2220,13 +2196,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
         <v>35938</v>
@@ -2243,13 +2219,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
         <v>35938</v>
@@ -2266,13 +2242,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
         <v>35938</v>
@@ -2289,13 +2265,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
         <v>35938</v>
@@ -2312,13 +2288,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
         <v>35938</v>
@@ -2335,13 +2311,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
         <v>35938</v>
@@ -2358,13 +2334,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
         <v>35938</v>
@@ -2381,13 +2357,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
         <v>35938</v>
@@ -2404,13 +2380,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
         <v>35938</v>
@@ -2427,13 +2403,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
         <v>35938</v>
@@ -2450,13 +2426,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
         <v>35938</v>
@@ -2473,13 +2449,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
         <v>35938</v>
@@ -2496,13 +2472,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F70" s="18">
         <v>35938</v>
@@ -2519,19 +2495,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F71" s="18">
-        <v>35938</v>
+        <v>47360</v>
       </c>
       <c r="G71" s="18">
-        <v>898450</v>
+        <v>1184000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2542,13 +2518,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F72" s="18">
         <v>35938</v>
@@ -2565,19 +2541,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F73" s="18">
-        <v>35938</v>
+        <v>47360</v>
       </c>
       <c r="G73" s="18">
-        <v>898450</v>
+        <v>1184000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2588,13 +2564,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F74" s="18">
         <v>35938</v>
@@ -2611,19 +2587,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="F75" s="18">
-        <v>35938</v>
+        <v>47360</v>
       </c>
       <c r="G75" s="18">
-        <v>898450</v>
+        <v>1184000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2634,13 +2610,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="F76" s="18">
         <v>35938</v>
@@ -2657,13 +2633,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="F77" s="18">
         <v>35938</v>
@@ -2680,13 +2656,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="F78" s="18">
         <v>35938</v>
@@ -2703,13 +2679,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F79" s="18">
         <v>35938</v>
@@ -2726,13 +2702,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F80" s="18">
         <v>35938</v>
@@ -2749,13 +2725,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F81" s="18">
         <v>35938</v>
@@ -2772,13 +2748,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F82" s="18">
         <v>35938</v>
@@ -2795,13 +2771,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="F83" s="18">
         <v>35938</v>
@@ -2818,13 +2794,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F84" s="18">
         <v>35938</v>
@@ -2841,19 +2817,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F85" s="18">
-        <v>1733</v>
+        <v>35938</v>
       </c>
       <c r="G85" s="18">
-        <v>850000</v>
+        <v>898450</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2864,19 +2840,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>80</v>
       </c>
       <c r="F86" s="18">
-        <v>44394</v>
+        <v>35938</v>
       </c>
       <c r="G86" s="18">
-        <v>1109850</v>
+        <v>898450</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2887,213 +2863,75 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F87" s="18">
-        <v>37360</v>
+        <v>42000</v>
       </c>
       <c r="G87" s="18">
-        <v>1015000</v>
+        <v>1467000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="16" t="s">
+      <c r="B88" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E88" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F88" s="18">
-        <v>37360</v>
-      </c>
-      <c r="G88" s="18">
-        <v>1015000</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F89" s="18">
-        <v>44597</v>
-      </c>
-      <c r="G89" s="18">
-        <v>1114926</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F90" s="18">
-        <v>14866</v>
-      </c>
-      <c r="G90" s="18">
-        <v>1114926</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B91" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F91" s="18">
-        <v>47360</v>
-      </c>
-      <c r="G91" s="18">
-        <v>1184000</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B92" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F92" s="18">
-        <v>47360</v>
-      </c>
-      <c r="G92" s="18">
-        <v>1184000</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="F88" s="24">
+        <v>1733</v>
+      </c>
+      <c r="G88" s="24">
+        <v>850000</v>
+      </c>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B93" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F93" s="18">
-        <v>47360</v>
-      </c>
-      <c r="G93" s="18">
-        <v>1184000</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="B93" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" s="32"/>
+      <c r="H93" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B94" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D94" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F94" s="24">
-        <v>42000</v>
-      </c>
-      <c r="G94" s="24">
-        <v>1050000</v>
-      </c>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B99" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C99" s="32"/>
-      <c r="H99" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B100" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C100" s="32"/>
-      <c r="H100" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
+      <c r="B94" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" s="32"/>
+      <c r="H94" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="H93:J93"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
